--- a/HW/2/test.xlsx
+++ b/HW/2/test.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PolyReg3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="linearReg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PolyReg2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PolyReg3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NaiveBayes" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LDA" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +467,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0.3650293508075861</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +482,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.799579733334374</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +497,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1.098049092660394</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +512,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-0.1389347230060232</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1.856951237635247</v>
       </c>
     </row>
     <row r="7">
@@ -534,6 +538,6864 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.423576687997885</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.61494202082778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2161055839501249</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0827966804615749</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.895001345569363</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.264110616475103</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04086626681571609</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.836481714928858</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.259466130311328</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.355988159927756</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04364260032778372</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.068101171377708</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.493941549580082</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.1008234281400244</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.1927009715926775</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.343598823431961</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.557739324401757</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.431711696049792</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.08472386875444438</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.774388748923776</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.197619321617804</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1587165136462548</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.004351258772509914</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.307771921351187</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.571424716360023</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.347444024625452</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.798895556086452</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1.044637523379099</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.904207504420469</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1.966709597675948</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.1017576914140155</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.164677648939175</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.1458825714855353</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1.231086130320028</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.771477811004275</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1.752377387339631</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.07167250870984732</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1.508234517142111</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1.850604225772653</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.145638412206413</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2.117066175694034</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.09714157078164698</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.06136911664591127</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.02776504652220529</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.288808759108025</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.06903343661926242</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.2761716411645088</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2.119506425534979</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1.685886092482333</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1.84626708385232</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1.936160839776344</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1.512543293531038</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1.439730695328503</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1.952021354733485</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1.231331913735312</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.07161347306868543</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1.794771376180926</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1.515236813566661</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.09167171723395673</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.05205406190472961</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2.014878127294325</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.077464088335367</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1.61010810841526</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1.657035404412478</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1.07650804525853</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1.377420311439544</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2.033063631111764</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1.597056748370662</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01734817087206908</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8989653658083844</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1.170072636620284</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1.636258497178044</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8832652367794083</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2.166996936251838</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1.164441858186061</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.0827499828692829</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.09223482761184509</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.2417273198502595</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1.851113418264414</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.03777729859319356</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1.471019642474444</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1.747965006000036</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1.575182793397627</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.06117554396462645</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.2195069880162797</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9147017119993478</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.09223482761184509</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1.841491923659198</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1.158181122987389</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2.011976774902664</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2.029868730014535</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1.270875028136923</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1.94590862229806</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2.176660109513971</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1.078054547045674</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.02173570975541248</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1.06230896710444</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.1654532103776627</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1.008166416468013</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1.364745049033524</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.1103240459376448</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1.322494012029992</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.2538989062148269</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.04282443207990965</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2.044708878828352</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1.738418730590928</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2.04680056933646</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.04595139578040288</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.05972058322733236</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1.522665968698778</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.02991817978820876</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1.699589883660486</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.01167637543488092</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1.777515461562703</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1.481134443981455</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.05300144677741727</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1.984915797748073</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.1365775551234856</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1.093073024379063</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.01469403160398507</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9216622074746013</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9461647470266009</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.07347159150150687</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.001698223790523264</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.8605865036941851</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.1453345147342512</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1.277568422094796</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1.257790447325651</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>-0.0563340813287458</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1.340152953959764</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1.122102048184719</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1.448320374855642</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1.261103329867352</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1.699589883660486</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.01985047262209015</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.01694811446678975</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1.365141992615873</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1.149917470278419</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1.536621830508517</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.8873871871290793</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1.391970018382032</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1.61357976409282</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1.429468365747494</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2.118690834900469</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.09223482761184509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.04262738968057889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9360339516741938</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9227630348674172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.06541439451043374</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2.169546482848425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.225075056174848</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.727526619700093</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.01379552860290012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01336165927473765</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.943144785738077</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.188379749379306</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.013348902041459</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.896942057048292</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.106648892698676</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.273290400790119</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.05468071950122955</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9848276487105441</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.26025139551688</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.04859289562724278</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.08528215016275364</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.267338883868943</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.226323527190667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.345945784038024</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.03804085721856509</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.992532771658922</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0998794804408</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03232338871653262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.05206061888394586</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.335394429856859</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.763160969287396</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.245493181615418</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.668259090769745</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9716332507773195</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2.100768680624439</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2.722903863486483</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.024178748748378</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.233013779084169</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.03912280388413514</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1.101359654337543</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.944296784064527</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1.798593779384365</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.02473812913753548</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1.613935514723721</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1.896122392315007</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.061763870019705</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2.362916718159912</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.07527755352424315</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.03724762586847952</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.02711340900404302</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.278369684937887</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.0001331286162802314</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.1168576280726406</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2.305484766790542</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1.667416295393529</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2.213106312158871</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2.207214217119432</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1.573184347561929</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1.094768596794205</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2.293385524360698</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1.04608892818346</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.007499586729966978</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2.252361109085474</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1.58464693993605</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.04001741927924485</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.02660328537518719</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2.137418322032071</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.05281465003297026</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1.564136626163952</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1.595673427715948</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.8920338478418994</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1.269078515376037</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2.167714431504937</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1.552730351475642</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.0007609788220701574</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6423511610593504</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9789981255357372</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1.716019061697635</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9518896326916233</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1.94081309535728</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1.207858051719159</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.008588668326555249</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.04074012897826523</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.01767958929236602</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1.843820988664982</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.03412990141017713</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1.566417124866231</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1.883397751733251</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1.47315400773816</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.007345686372099758</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1850968763620882</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.8868242162109681</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.04074012897826523</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1.735505269268349</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1.052061949767876</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2.097230410531616</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2.104682742213922</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1.102029291712684</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1.622320397631867</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2.113539011257757</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9840369427000693</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.1044236975481332</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1.008003455035917</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.3827358613572821</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1.040656207433434</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1.123109703049253</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.08671606762481188</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1.022846062489231</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1681237705966534</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.06727383582597982</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1.759835206169073</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1.627574368464399</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2.106707427436935</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.001994704488152643</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.04248299029911307</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1.29298812306178</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.03142916291180409</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1.749485347561434</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.009063139593507227</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1.795399241283932</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1.189251995735285</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.05356718094907825</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1.91891771840229</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.09806210820619699</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9484226233683506</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.008138644351123436</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9273577713776195</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1.130508480018281</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.01085588004637861</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.04079068643122252</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.8552778371478513</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.1350301201963891</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1.175285281541099</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1.249445074339782</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>-0.01063152129454648</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1.144029238612482</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1.041559265597903</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1.479760566279336</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.8948249346589918</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1.749485347561434</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.02348456137539001</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.02753896110546716</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1.650329353786469</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1.028247793641214</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1.49291557370174</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.8016839931574313</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1.455715748153753</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1.663582765909734</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1.464538136580047</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2.194779213897551</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.04074012897826529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8476229458111675</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9160884972336021</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.088765609878806</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6122309636521095</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5919833803534402</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.115736178439647</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.280707803602354</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.383061622914056</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.07422560580693016</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.144299358335502</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.083235472181286</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.2232214373610759</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.988759597762282</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.038506593496322</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.283871135484674</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.1227010299588756</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9884995286779485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.187596621881198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.267174266822451</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.05665704147918404</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8183089621608133</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.057843352214491</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.480842918338567</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.04932346774614871</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.17582808663451</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.061735471392012</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1747630812579359</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1638522462576475</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.441289179821524</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.564986266927235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.243143981879484</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2.632588621140485</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8751980128259902</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2.01382323829398</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1.899420606030162</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.06790695357250343</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.201642004256883</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.05477862637877706</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1.297419987763078</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.529977658683038</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1.975396261177139</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.02717812952585064</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9245708271572539</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1.97902027821533</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.082953561671957</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.770920268773352</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.1324979122704235</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.06345921095277163</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.01359329410516352</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.349266381489656</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.02179245090576387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.3618229225394316</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1.823090958583634</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1.99977694834547</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2.48380872929738</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2.068081871684853</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1.630313884424936</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9242032006960699</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2.069766130195603</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9779527882697039</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.1042797783097171</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2.088857544421444</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1.622130892350697</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.05885325277870379</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.03217524947027073</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2.139147292715052</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.1661295929011999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1.615299748920052</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1.717697030881709</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1.013393608302067</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1.125315212383839</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2.180536335097713</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1.603797165876585</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.1451574432018106</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6864758518765939</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8412552948851442</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1.705918267133825</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6365462040987211</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1.26166409851453</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1.141002468747303</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.03502617789229134</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1434178526952223</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6524187836738129</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1.664335593160786</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.1249635144769528</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1.646870114958062</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1.963454801836235</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1.586207076038022</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.003961411534149306</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.229439817754951</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.741826710282453</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1434178526952223</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1.68286095600206</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.8528937734656949</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2.039785466837316</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2.206350825089203</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1.075840533126666</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1.765042268419393</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1.23346575879475</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1.273864855239992</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.5076487359533886</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.8790010737445186</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.3733588338649909</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.907405257858187</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1.043023640710715</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.09979936741085282</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1.00977492776974</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.8746798869613599</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.1747881474747146</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1.640088704838888</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1.813084975456945</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1.886831620694124</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.0189083982223579</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1449257778489539</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1.558108747558379</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.1202849705635636</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1.839482354757592</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.04991432512462524</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2.011219075292331</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1536428446912623</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.07298330282773335</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2.314748305414923</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.1259184221735872</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.8246206391415853</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.1917444842500196</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.7939009329363671</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.929242017640405</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.0155937021414374</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.0173558492710626</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.4358431889177723</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.3744795604628512</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1.38515731890422</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1.102126523875882</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>-0.01691112694958008</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1.032599375234952</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.8866801459480484</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1.282081222852071</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.9942180246923726</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1.839482354757592</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.1672489887140642</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.04919884799581808</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>3.266651993141295</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9860279999861064</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1.586949973692924</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.6381930094145787</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1.415875164776764</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1.726198861202477</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1.425744490447471</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2.176670315215802</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.1434178526952223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Iris-virginica</t>
         </is>
       </c>
@@ -2579,6 +9441,2292 @@
       </c>
       <c r="C143" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">

--- a/HW/2/test.xlsx
+++ b/HW/2/test.xlsx
@@ -11,7 +11,9 @@
     <sheet name="PolyReg2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PolyReg3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="NaiveBayes" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="LDA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="KNN" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="LDA" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="QDA" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9922,11 +9924,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -9937,11 +9939,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -10237,11 +10239,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -11392,11 +11394,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -11722,11 +11724,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -11782,11 +11784,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -11817,6 +11819,4578 @@
       </c>
       <c r="C149" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="150">
